--- a/user_files/hilarytn/facility1/source2/line_9.xlsx
+++ b/user_files/hilarytn/facility1/source2/line_9.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
+          <t>85c4be6d-8cc2-4d43-bd81-813a46e099b8</t>
         </is>
       </c>
       <c r="H2" s="3" t="n">
@@ -541,7 +541,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
+          <t>85c4be6d-8cc2-4d43-bd81-813a46e099b8</t>
         </is>
       </c>
       <c r="H3" s="3" t="n">
@@ -575,7 +575,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
+          <t>85c4be6d-8cc2-4d43-bd81-813a46e099b8</t>
         </is>
       </c>
       <c r="H4" s="3" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
+          <t>85c4be6d-8cc2-4d43-bd81-813a46e099b8</t>
         </is>
       </c>
       <c r="H5" s="3" t="n">
@@ -643,7 +643,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
+          <t>85c4be6d-8cc2-4d43-bd81-813a46e099b8</t>
         </is>
       </c>
       <c r="H6" s="3" t="n">
@@ -677,7 +677,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
+          <t>85c4be6d-8cc2-4d43-bd81-813a46e099b8</t>
         </is>
       </c>
       <c r="H7" s="3" t="n">
@@ -711,7 +711,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
+          <t>85c4be6d-8cc2-4d43-bd81-813a46e099b8</t>
         </is>
       </c>
       <c r="H8" s="3" t="n">
@@ -745,7 +745,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
+          <t>85c4be6d-8cc2-4d43-bd81-813a46e099b8</t>
         </is>
       </c>
       <c r="H9" s="3" t="n">
@@ -779,7 +779,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
+          <t>85c4be6d-8cc2-4d43-bd81-813a46e099b8</t>
         </is>
       </c>
       <c r="H10" s="3" t="n">
@@ -813,7 +813,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
+          <t>85c4be6d-8cc2-4d43-bd81-813a46e099b8</t>
         </is>
       </c>
       <c r="H11" s="3" t="n">
@@ -847,7 +847,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
+          <t>85c4be6d-8cc2-4d43-bd81-813a46e099b8</t>
         </is>
       </c>
       <c r="H12" s="3" t="n">
@@ -881,7 +881,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
+          <t>85c4be6d-8cc2-4d43-bd81-813a46e099b8</t>
         </is>
       </c>
       <c r="H13" s="3" t="n">
@@ -915,7 +915,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
+          <t>85c4be6d-8cc2-4d43-bd81-813a46e099b8</t>
         </is>
       </c>
       <c r="H14" s="3" t="n">
@@ -949,7 +949,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
+          <t>85c4be6d-8cc2-4d43-bd81-813a46e099b8</t>
         </is>
       </c>
       <c r="H15" s="3" t="n">
@@ -983,7 +983,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
+          <t>85c4be6d-8cc2-4d43-bd81-813a46e099b8</t>
         </is>
       </c>
       <c r="H16" s="3" t="n">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
+          <t>85c4be6d-8cc2-4d43-bd81-813a46e099b8</t>
         </is>
       </c>
       <c r="H17" s="3" t="n">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
+          <t>85c4be6d-8cc2-4d43-bd81-813a46e099b8</t>
         </is>
       </c>
       <c r="H18" s="3" t="n">
@@ -1085,826 +1085,10 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
+          <t>85c4be6d-8cc2-4d43-bd81-813a46e099b8</t>
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Line:9 Stage:1</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>01/09/2024</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>pri cl LA</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>45300.40887037037</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>45300.40910185185</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
-        </is>
-      </c>
-      <c r="H20" s="3" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Line:9 Stage:1</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>01/09/2024</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Pri pH flows</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>45300.49280315972</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>45300.49893741898</v>
-      </c>
-      <c r="F21" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
-        </is>
-      </c>
-      <c r="H21" s="3" t="n">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Line:9 Stage:1</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>01/09/2024</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Pri pH flows</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>45300.50241207176</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>45300.50287503472</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
-        </is>
-      </c>
-      <c r="H22" s="3" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Line:9 Stage:1</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>01/09/2024</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Pri pH flows</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>45300.50356979167</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>45300.50368553241</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
-        </is>
-      </c>
-      <c r="H23" s="3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Line:9 Stage:1</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>01/09/2024</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Pri pH flows</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>45300.50438012731</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>45300.50449586806</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
-        </is>
-      </c>
-      <c r="H24" s="3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Line:9 Stage:1</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>01/09/2024</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Pri pH flows</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>45300.50519054398</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>45300.50715813658</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
-        </is>
-      </c>
-      <c r="H25" s="3" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Line:9 Stage:1</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>01/09/2024</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>pri cl LA</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>45300.40887037037</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>45300.40910185185</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
-        </is>
-      </c>
-      <c r="H26" s="3" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Line:9 Stage:1</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>01/09/2024</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Pri pH flows</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>45300.49280315972</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>45300.49893741898</v>
-      </c>
-      <c r="F27" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
-        </is>
-      </c>
-      <c r="H27" s="3" t="n">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Line:9 Stage:1</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>01/09/2024</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Pri pH flows</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>45300.50241207176</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>45300.50287503472</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
-        </is>
-      </c>
-      <c r="H28" s="3" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Line:9 Stage:1</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>01/09/2024</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Pri pH flows</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>45300.50356979167</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>45300.50368553241</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
-        </is>
-      </c>
-      <c r="H29" s="3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Line:9 Stage:1</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>01/09/2024</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Pri pH flows</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>45300.50438012731</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>45300.50449586806</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
-        </is>
-      </c>
-      <c r="H30" s="3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Line:9 Stage:1</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>01/09/2024</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Pri pH flows</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>45300.50519054398</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>45300.50715813658</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
-        </is>
-      </c>
-      <c r="H31" s="3" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Line:9 Stage:1</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>01/09/2024</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>pri cl LA</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>45300.40887037037</v>
-      </c>
-      <c r="E32" s="2" t="n">
-        <v>45300.40910185185</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
-        </is>
-      </c>
-      <c r="H32" s="3" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Line:9 Stage:1</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>01/09/2024</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Pri pH flows</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>45300.49280315972</v>
-      </c>
-      <c r="E33" s="2" t="n">
-        <v>45300.49893741898</v>
-      </c>
-      <c r="F33" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
-        </is>
-      </c>
-      <c r="H33" s="3" t="n">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Line:9 Stage:1</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>01/09/2024</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Pri pH flows</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>45300.50241207176</v>
-      </c>
-      <c r="E34" s="2" t="n">
-        <v>45300.50287503472</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
-        </is>
-      </c>
-      <c r="H34" s="3" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Line:9 Stage:1</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>01/09/2024</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Pri pH flows</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>45300.50356979167</v>
-      </c>
-      <c r="E35" s="2" t="n">
-        <v>45300.50368553241</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
-        </is>
-      </c>
-      <c r="H35" s="3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Line:9 Stage:1</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>01/09/2024</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Pri pH flows</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>45300.50438012731</v>
-      </c>
-      <c r="E36" s="2" t="n">
-        <v>45300.50449586806</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
-        </is>
-      </c>
-      <c r="H36" s="3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Line:9 Stage:1</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>01/09/2024</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Pri pH flows</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>45300.50519054398</v>
-      </c>
-      <c r="E37" s="2" t="n">
-        <v>45300.50715813658</v>
-      </c>
-      <c r="F37" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
-        </is>
-      </c>
-      <c r="H37" s="3" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Line:9 Stage:1</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>01/09/2024</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>pri cl LA</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>45300.40887037037</v>
-      </c>
-      <c r="E38" s="2" t="n">
-        <v>45300.40910185185</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
-        </is>
-      </c>
-      <c r="H38" s="3" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Line:9 Stage:1</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>01/09/2024</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Pri pH flows</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>45300.49280315972</v>
-      </c>
-      <c r="E39" s="2" t="n">
-        <v>45300.49893741898</v>
-      </c>
-      <c r="F39" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
-        </is>
-      </c>
-      <c r="H39" s="3" t="n">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Line:9 Stage:1</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>01/09/2024</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Pri pH flows</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>45300.50241207176</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>45300.50287503472</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
-        </is>
-      </c>
-      <c r="H40" s="3" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Line:9 Stage:1</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>01/09/2024</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Pri pH flows</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>45300.50356979167</v>
-      </c>
-      <c r="E41" s="2" t="n">
-        <v>45300.50368553241</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
-        </is>
-      </c>
-      <c r="H41" s="3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Line:9 Stage:1</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>01/09/2024</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Pri pH flows</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>45300.50438012731</v>
-      </c>
-      <c r="E42" s="2" t="n">
-        <v>45300.50449586806</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
-        </is>
-      </c>
-      <c r="H42" s="3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Line:9 Stage:1</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>01/09/2024</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Pri pH flows</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>45300.50519054398</v>
-      </c>
-      <c r="E43" s="2" t="n">
-        <v>45300.50715813658</v>
-      </c>
-      <c r="F43" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>35bd97d8-b0d6-493c-a0bc-12760d83235d</t>
-        </is>
-      </c>
-      <c r="H43" s="3" t="n">
         <v>170</v>
       </c>
     </row>
